--- a/Dataset/bool-constant-test.xlsx
+++ b/Dataset/bool-constant-test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0A5B95-388C-4712-A840-E6B718FE56F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37D4680-1634-415A-96ED-7F0DBAAF046C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,25 +335,21 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
       <c r="B1" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="b">
-        <f>AND(A1,B1)</f>
-        <v>0</v>
+      <c r="A2" t="str">
+        <f>IF(B1,"Falso!","Vero")</f>
+        <v>Vero</v>
       </c>
     </row>
   </sheetData>
